--- a/suncheon_bus.xlsx
+++ b/suncheon_bus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songchangseok/Desktop/bus/bus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25A5EEB-129C-0E46-80CA-FCD31079886F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686D59FF-05A5-E848-A206-8D40930A298F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,22 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>5번</t>
-  </si>
-  <si>
-    <t>노선</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>정류장</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>14번</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>대법, CGV신대점, 매안초교, 신대지구(중흥2차A~중흥1차A), 좌야, 호반A, 부영2차A, 구암교, 이마트, 순천역, 아랫장, 종합버스터미널, 순고오거리, 중앙시장, 웃장, 순천대, 경찰서, 향림사, 향림골노인정, 향림실버빌, 성산요양원, 조비</t>
   </si>
@@ -48,15 +33,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1번</t>
+    <t>팔마경기장, 순천역, 아랫장, 종합버스터미널, 순고오거리, 남교오거리, 시청, 성동초교, 의료원R, 중앙시장, 남초등학교, 옥천교, 옥천 현대, SOS어린이마을, 노두, 범죽, 노변</t>
+  </si>
+  <si>
+    <t>노선순서</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>2번</t>
+    <t>버스번호</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔마경기장, 순천역, 아랫장, 종합버스터미널, 순고오거리, 남교오거리, 시청, 성동초교, 의료원R, 중앙시장, 남초등학교, 옥천교, 옥천 현대, SOS어린이마을, 노두, 범죽, 노변</t>
   </si>
 </sst>
 </file>
@@ -659,7 +644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1023,7 +1008,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1042,42 +1027,42 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1">
+      <c r="A2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+      <c r="A5" s="1">
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/suncheon_bus.xlsx
+++ b/suncheon_bus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songchangseok/Desktop/bus/bus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686D59FF-05A5-E848-A206-8D40930A298F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2234DA17-8FA3-7D4C-BBA3-6FA64DC5BDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,20 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>대법, CGV신대점, 매안초교, 신대지구(중흥2차A~중흥1차A), 좌야, 호반A, 부영2차A, 구암교, 이마트, 순천역, 아랫장, 종합버스터미널, 순고오거리, 중앙시장, 웃장, 순천대, 경찰서, 향림사, 향림골노인정, 향림실버빌, 성산요양원, 조비</t>
-  </si>
-  <si>
-    <t>국가정원(서문),국가정원(동문), 세영A(대주피오레A), 명말, 팔마 경기장, 연향마을, 호반A입구, 산림조합, 금당대주파크빌, 부영7차A, 폴리텍대학(신흥중), 부영8차A, 조례초교, 국민은행, 덕연동 행정복지센터, 덕암마을, 구암마을, 이마트, 순천역, 청춘창고, 조곡삼거리, 수정맨션, 조곡금호A</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>순천역, 아랫장, 종합버스터미널, 남교R, 중앙시장, 웃장, 순천대, 경찰서, 제일고, 선평, 동산, 학구삼거리, 대구, 승주읍사무소, 승주우체국, 평중리, 죽학삼거리, 괴목</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔마경기장, 순천역, 아랫장, 종합버스터미널, 순고오거리, 남교오거리, 시청, 성동초교, 의료원R, 중앙시장, 남초등학교, 옥천교, 옥천 현대, SOS어린이마을, 노두, 범죽, 노변</t>
-  </si>
-  <si>
     <t>노선순서</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -43,12 +29,863 @@
     <t>버스번호</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팔마경기장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순천역</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아랫장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종합 버스 터미널</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순고오거리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남교오거리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성동초교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의료원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">R, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중앙시장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남초등학교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>옥천교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>옥천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, SOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어린이마을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>노두</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범죽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>노변</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>순천역, 아랫장, 종합 버스 터미널, 남교R, 중앙시장, 웃장, 순천대, 경찰서, 제일고, 선평, 동산, 학구삼거리, 대구, 승주읍사무소, 승주우체국, 평중리, 죽학삼거리, 괴목</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, CGV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신대점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매안초교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신대지구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중흥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중흥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">A), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좌야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">A, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부영</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">A, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구암교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이마트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순천역</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아랫장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종합 버스 터미널</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순고오거리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중앙시장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웃장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순천대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경찰서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>향림사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>향림골노인정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>향림실버빌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성산요양원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조비</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가정원(서문),국가정원(동문), 세영A(대주피오레A), 명말, 팔마경기장, 연향마을, 호반A입구, 산림조합, 금당대주파크빌, 부영7차A, 폴리텍대학(신흥중), 부영8차A, 조례초교, 국민은행, 덕연동 행정복지센터, 덕암마을, 구암마을, 이마트, 순천역, 청춘창고, 조곡삼거리, 수정맨션, 조곡금호A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,6 +1050,20 @@
       <color rgb="FF0F0F0F"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="33">
@@ -647,7 +1498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1007,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1027,10 +1878,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1">
@@ -1038,7 +1889,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1">
@@ -1046,7 +1897,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1">
@@ -1054,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1">
@@ -1062,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/suncheon_bus.xlsx
+++ b/suncheon_bus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songchangseok/Desktop/bus/bus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2234DA17-8FA3-7D4C-BBA3-6FA64DC5BDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138CFDC1-42E6-2E49-9FF1-DC0FF9EC5CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <t>순천역, 아랫장, 종합버스터미널, 남교R, 중앙시장, 웃장, 순천대, 경찰서, 제일고, 선평, 동산, 학구삼거리, 대구, 승주읍사무소, 승주우체국, 평중리, 죽학삼거리, 괴목</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>노선순서</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -38,346 +42,6 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>팔마경기장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>순천역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아랫장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>종합 버스 터미널</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>순고오거리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>남교오거리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>성동초교</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의료원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">R, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중앙시장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>남초등학교</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>옥천교</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>옥천</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>현대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, SOS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어린이마을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>노두</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>범죽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>노변</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>순천역, 아랫장, 종합 버스 터미널, 남교R, 중앙시장, 웃장, 순천대, 경찰서, 제일고, 선평, 동산, 학구삼거리, 대구, 승주읍사무소, 승주우체국, 평중리, 죽학삼거리, 괴목</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F0F0F"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
       <t>대법</t>
     </r>
     <r>
@@ -878,6 +542,342 @@
   </si>
   <si>
     <t>국가정원(서문),국가정원(동문), 세영A(대주피오레A), 명말, 팔마경기장, 연향마을, 호반A입구, 산림조합, 금당대주파크빌, 부영7차A, 폴리텍대학(신흥중), 부영8차A, 조례초교, 국민은행, 덕연동 행정복지센터, 덕암마을, 구암마을, 이마트, 순천역, 청춘창고, 조곡삼거리, 수정맨션, 조곡금호A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팔마경기장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순천역</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아랫장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종합버스터미널</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순고오거리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남교오거리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성동초교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의료원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">R, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중앙시장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남초등학교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>옥천교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>옥천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, SOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어린이마을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>노두</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범죽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>노변</t>
+    </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1859,7 +1859,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1878,10 +1878,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1">
@@ -1889,7 +1889,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1">
@@ -1897,7 +1897,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1">
@@ -1905,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1">
@@ -1913,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/suncheon_bus.xlsx
+++ b/suncheon_bus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songchangseok/Desktop/bus/bus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138CFDC1-42E6-2E49-9FF1-DC0FF9EC5CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C6388B-2803-0B4E-929F-1E85588696F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14820" yWindow="760" windowWidth="15420" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="suncheon_bus" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>순천역, 아랫장, 종합버스터미널, 남교R, 중앙시장, 웃장, 순천대, 경찰서, 제일고, 선평, 동산, 학구삼거리, 대구, 승주읍사무소, 승주우체국, 평중리, 죽학삼거리, 괴목</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -879,6 +879,12 @@
       <t>노변</t>
     </r>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>순천역,아랫장,종합버스터미널,남교오거리,중앙시장,웃장,순천대,경찰서,선평,서면사무소,동산입구,당천입구,산정입구,구만리,비월,학구삼거리,하대구,상대구,월내,용계,내상삼거리,승주읍사무소,승주농협,평중리,내동,사제,지동,축내</t>
+  </si>
+  <si>
+    <t>순천역,아랫장,종합버스터미널,남교오거리,중앙시장,웃장,순천대,경찰서,선평,서면사무소,동산입구,당천입구,산정입구,구만리,비월,학구삼거리,하대구,상대구,월내,용계,승주읍사무소,승주농협,송전,신창,칠성,죽학,(선암사),남정,석정,금산입구,금산마을,목촌</t>
   </si>
 </sst>
 </file>
@@ -1856,10 +1862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1886,34 +1892,50 @@
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1">
       <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/suncheon_bus.xlsx
+++ b/suncheon_bus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songchangseok/Desktop/bus/bus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C6388B-2803-0B4E-929F-1E85588696F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B016652C-5207-DF4B-818D-B8898BA95093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14820" yWindow="760" windowWidth="15420" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1865,7 +1865,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/suncheon_bus.xlsx
+++ b/suncheon_bus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songchangseok/Desktop/bus/bus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B016652C-5207-DF4B-818D-B8898BA95093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7122C97E-D390-1348-BECD-10D63DB4420B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="760" windowWidth="15420" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49440" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="suncheon_bus" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>순천역, 아랫장, 종합버스터미널, 남교R, 중앙시장, 웃장, 순천대, 경찰서, 제일고, 선평, 동산, 학구삼거리, 대구, 승주읍사무소, 승주우체국, 평중리, 죽학삼거리, 괴목</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -886,12 +886,18 @@
   <si>
     <t>순천역,아랫장,종합버스터미널,남교오거리,중앙시장,웃장,순천대,경찰서,선평,서면사무소,동산입구,당천입구,산정입구,구만리,비월,학구삼거리,하대구,상대구,월내,용계,승주읍사무소,승주농협,송전,신창,칠성,죽학,(선암사),남정,석정,금산입구,금산마을,목촌</t>
   </si>
+  <si>
+    <t>순천역,아랫장,종합버스터미널,남교오거리,중앙시장,웃장,순천대,경찰서,선평,서면사무소,전자고,동산입구,당천입구,산정입구,구만리,비월,학구,대구,월내,용계,원다리,승주읍사무소,중대,봉곡,등계,(신전),전경대</t>
+  </si>
+  <si>
+    <t xml:space="preserve">왕대, 후곡, 유경, 이읍, 문성, 운룡, 백록, 마전, 오산, 용전, 창촌, 죽림마을 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1070,6 +1076,17 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="HCRBatang"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1497,7 +1514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1506,6 +1523,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1862,7 +1885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -1938,6 +1961,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
